--- a/Coarse Design/Vista do Encarregado de Educação.xlsx
+++ b/Coarse Design/Vista do Encarregado de Educação.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="-60" windowWidth="11730" windowHeight="8010"/>
@@ -94,8 +94,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -126,16 +134,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -145,34 +153,107 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -180,42 +261,82 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +347,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -233,7 +357,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +395,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,234 +641,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:U15"/>
+  <dimension ref="C2:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="9" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="11" max="13" width="16.28515625" customWidth="1"/>
-    <col min="15" max="17" width="31.42578125" customWidth="1"/>
-    <col min="19" max="21" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="2" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="5" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="5" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="5" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="3"/>
+      <c r="S3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="2"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="9"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="M5" s="9"/>
+      <c r="O5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="Q5" s="9"/>
+      <c r="S5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="9"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="M6" s="9"/>
+      <c r="O6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="Q6" s="9"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="9"/>
+      <c r="K7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="9"/>
+      <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G10" s="4" t="s">
+      <c r="I9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="K3:L3"/>
@@ -753,23 +899,9 @@
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
